--- a/dd5-generator/src/files/MO6.xlsx
+++ b/dd5-generator/src/files/MO6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yann.martin\OneDrive - Doriane sas\Documents\DEV\DD5-Generator\dd5-generator\src\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann\Documents\DEV\DnD\DD5-Generator\dd5-generator\src\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD49420-5C41-454C-8D81-2F31D568EF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101230A3-9087-4859-851E-00B2E87E674E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12372" yWindow="12948" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F593349B-2B27-4EE3-9EEE-F13A63ADC450}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
